--- a/src/test/resources/data/out.xlsx
+++ b/src/test/resources/data/out.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="New Лист" r:id="rId5" sheetId="2"/>
+    <sheet name="New Лист1" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
   <si>
     <t>Test1</t>
   </si>
@@ -738,4 +739,42 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>